--- a/biology/Médecine/Nomenclature_des_actes_de_biologie_médicale/Nomenclature_des_actes_de_biologie_médicale.xlsx
+++ b/biology/Médecine/Nomenclature_des_actes_de_biologie_médicale/Nomenclature_des_actes_de_biologie_médicale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nomenclature_des_actes_de_biologie_m%C3%A9dicale</t>
+          <t>Nomenclature_des_actes_de_biologie_médicale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nomenclature des actes de biologie médicale (NABM) est une liste des examens de biologie médicale remboursés par la Sécurité sociale française. Leur coût est exprimé en "B" et est réactualisé régulièrement à la baisse[1].
-Cette liste est disponible sur le site de l'Assurance Maladie[2]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nomenclature des actes de biologie médicale (NABM) est une liste des examens de biologie médicale remboursés par la Sécurité sociale française. Leur coût est exprimé en "B" et est réactualisé régulièrement à la baisse.
+Cette liste est disponible sur le site de l'Assurance Maladie
 </t>
         </is>
       </c>
